--- a/mapping_table/full mapping table (1).xlsx
+++ b/mapping_table/full mapping table (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8D37C9-B482-4471-B807-B0B7EC8E63AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C29F081-8341-4EE0-9E0A-B18BFC8F193B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="1476">
   <si>
     <t>AI Act Requirement</t>
   </si>
@@ -4403,6 +4403,60 @@
   </si>
   <si>
     <t>hasAccuracyByGroup</t>
+  </si>
+  <si>
+    <t>hasAnnualReportingDuty</t>
+  </si>
+  <si>
+    <t>requiresBiometricAuthorization</t>
+  </si>
+  <si>
+    <t>requiresContinuousProcess</t>
+  </si>
+  <si>
+    <t>hasDeployersMonitoringDuty</t>
+  </si>
+  <si>
+    <t>triggersFalsificationAlert</t>
+  </si>
+  <si>
+    <t>hasForeseeableRisk</t>
+  </si>
+  <si>
+    <t>hasLawEnforcementRestriction</t>
+  </si>
+  <si>
+    <t>hasLifecyclePhase</t>
+  </si>
+  <si>
+    <t>hasOversightEnabler</t>
+  </si>
+  <si>
+    <t>hasPerformanceEvaluationPlan</t>
+  </si>
+  <si>
+    <t>belongsToProductCategory</t>
+  </si>
+  <si>
+    <t>refersToExistingFramework</t>
+  </si>
+  <si>
+    <t>requiresSeriousIncidentReporting</t>
+  </si>
+  <si>
+    <t>hasSuspensionTrigger</t>
+  </si>
+  <si>
+    <t>hasRiskManagementSystem</t>
+  </si>
+  <si>
+    <t>hasSystemLimitation</t>
+  </si>
+  <si>
+    <t>usesUrgentUseProvision</t>
+  </si>
+  <si>
+    <t>References existing regulatory risk management frameworks.</t>
   </si>
 </sst>
 </file>
@@ -4445,7 +4499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4455,12 +4509,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4530,8 +4578,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4814,10 +4862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I494"/>
+  <dimension ref="A1:I511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I375" sqref="I375"/>
+    <sheetView tabSelected="1" topLeftCell="A485" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="K496" sqref="K496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4855,6 +4903,7 @@
       <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -4976,7 +5025,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>929</v>
       </c>
@@ -5434,7 +5483,7 @@
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>943</v>
       </c>
@@ -5747,7 +5796,7 @@
       </c>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>953</v>
       </c>
@@ -6589,7 +6638,7 @@
       </c>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>975</v>
       </c>
@@ -7142,7 +7191,7 @@
       </c>
       <c r="H96" s="13"/>
     </row>
-    <row r="97" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>993</v>
       </c>
@@ -7335,7 +7384,7 @@
       </c>
       <c r="H104" s="13"/>
     </row>
-    <row r="105" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>379</v>
       </c>
@@ -7696,7 +7745,7 @@
       </c>
       <c r="H119" s="13"/>
     </row>
-    <row r="120" spans="1:9" ht="90" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>1003</v>
       </c>
@@ -7936,7 +7985,7 @@
       </c>
       <c r="H129" s="13"/>
     </row>
-    <row r="130" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>1010</v>
       </c>
@@ -8729,7 +8778,7 @@
       </c>
       <c r="H162" s="13"/>
     </row>
-    <row r="163" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>433</v>
       </c>
@@ -10963,7 +11012,7 @@
       </c>
       <c r="H255" s="13"/>
     </row>
-    <row r="256" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>460</v>
       </c>
@@ -12404,7 +12453,7 @@
       </c>
       <c r="H315" s="13"/>
     </row>
-    <row r="316" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A316" s="7" t="s">
         <v>456</v>
       </c>
@@ -13629,7 +13678,7 @@
       </c>
       <c r="H366" s="13"/>
     </row>
-    <row r="367" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>256</v>
       </c>
@@ -16700,6 +16749,397 @@
         <v>838</v>
       </c>
       <c r="H494" s="13"/>
+    </row>
+    <row r="495" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A495" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C495" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D495" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E495" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F495" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G495" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+      <c r="A496" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C496" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D496" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E496" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F496" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G496" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A497" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B497" s="5">
+        <v>46</v>
+      </c>
+      <c r="C497" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D497" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E497" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F497" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G497" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A498" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B498" s="5">
+        <v>60</v>
+      </c>
+      <c r="C498" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D498" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E498" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F498" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G498" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+      <c r="A499" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B499" s="5">
+        <v>6</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D499" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E499" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F499" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G499" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="A500" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B500" s="5">
+        <v>88</v>
+      </c>
+      <c r="C500" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D500" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E500" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F500" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G500" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="A501" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C501" s="6" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D501" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E501" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F501" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G501" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="A502" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B502" s="5">
+        <v>46</v>
+      </c>
+      <c r="C502" s="6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D502" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E502" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F502" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G502" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A503" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B503" s="5">
+        <v>88</v>
+      </c>
+      <c r="C503" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D503" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E503" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F503" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G503" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A504" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B504" s="5">
+        <v>47</v>
+      </c>
+      <c r="C504" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D504" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E504" s="7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F504" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G504" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A505" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B505" s="5">
+        <v>40</v>
+      </c>
+      <c r="C505" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D505" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E505" s="7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F505" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G505" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A506" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B506" s="5">
+        <v>80</v>
+      </c>
+      <c r="C506" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D506" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E506" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F506" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G506" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A507" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B507" s="5">
+        <v>17</v>
+      </c>
+      <c r="C507" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D507" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E507" s="7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F507" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G507" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A508" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C508" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D508" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E508" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F508" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G508" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" ht="126" x14ac:dyDescent="0.35">
+      <c r="A509" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B509" s="5">
+        <v>80</v>
+      </c>
+      <c r="C509" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D509" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E509" s="7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F509" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="G509" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A510" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B510" s="5">
+        <v>13</v>
+      </c>
+      <c r="C510" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D510" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E510" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F510" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G510" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="A511" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B511" s="5">
+        <v>72</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D511" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E511" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F511" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G511" s="7" t="s">
+        <v>835</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G490">

--- a/mapping_table/full mapping table (1).xlsx
+++ b/mapping_table/full mapping table (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C29F081-8341-4EE0-9E0A-B18BFC8F193B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B8A5F6-CB78-4A44-B4DE-AF5A45FA3D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="1477">
   <si>
     <t>AI Act Requirement</t>
   </si>
@@ -4457,6 +4457,9 @@
   </si>
   <si>
     <t>References existing regulatory risk management frameworks.</t>
+  </si>
+  <si>
+    <t>hasAuthorizedRepresentative</t>
   </si>
 </sst>
 </file>
@@ -4540,7 +4543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4578,8 +4581,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4862,10 +4864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I511"/>
+  <dimension ref="A1:I512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A485" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="K496" sqref="K496"/>
+    <sheetView tabSelected="1" topLeftCell="A500" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="H510" sqref="H510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4903,7 +4905,6 @@
       <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -4927,7 +4928,6 @@
       <c r="G2" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -4951,7 +4951,6 @@
       <c r="G3" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -4975,7 +4974,6 @@
       <c r="G4" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -4999,7 +4997,6 @@
       <c r="G5" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -5023,7 +5020,6 @@
       <c r="G6" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -5047,7 +5043,6 @@
       <c r="G7" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -5071,7 +5066,6 @@
       <c r="G8" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -5095,7 +5089,6 @@
       <c r="G9" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -5117,9 +5110,8 @@
         <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="H10" s="13"/>
+        <v>836</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -5143,7 +5135,6 @@
       <c r="G11" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -5167,7 +5158,6 @@
       <c r="G12" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -5191,7 +5181,6 @@
       <c r="G13" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -5215,7 +5204,6 @@
       <c r="G14" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H14" s="13"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="54" x14ac:dyDescent="0.3">
@@ -5240,7 +5228,6 @@
       <c r="G15" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -5264,7 +5251,6 @@
       <c r="G16" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -5288,7 +5274,6 @@
       <c r="G17" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -5312,7 +5297,6 @@
       <c r="G18" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -5336,7 +5320,6 @@
       <c r="G19" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -5360,7 +5343,6 @@
       <c r="G20" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -5384,7 +5366,6 @@
       <c r="G21" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -5408,7 +5389,6 @@
       <c r="G22" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -5432,9 +5412,8 @@
       <c r="G23" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>941</v>
       </c>
@@ -5456,7 +5435,6 @@
       <c r="G24" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H24" s="13"/>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -5481,9 +5459,8 @@
       <c r="G25" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>943</v>
       </c>
@@ -5505,7 +5482,6 @@
       <c r="G26" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -5529,7 +5505,6 @@
       <c r="G27" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H27" s="13"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -5554,7 +5529,6 @@
       <c r="G28" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -5578,7 +5552,6 @@
       <c r="G29" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -5602,7 +5575,6 @@
       <c r="G30" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -5626,7 +5598,6 @@
       <c r="G31" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -5650,7 +5621,6 @@
       <c r="G32" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -5674,7 +5644,6 @@
       <c r="G33" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
@@ -5698,7 +5667,6 @@
       <c r="G34" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -5722,7 +5690,6 @@
       <c r="G35" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -5746,7 +5713,6 @@
       <c r="G36" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -5770,7 +5736,6 @@
       <c r="G37" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
@@ -5794,9 +5759,8 @@
       <c r="G38" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>953</v>
       </c>
@@ -5818,7 +5782,6 @@
       <c r="G39" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
@@ -5842,7 +5805,6 @@
       <c r="G40" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
@@ -5866,7 +5828,6 @@
       <c r="G41" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -5890,7 +5851,6 @@
       <c r="G42" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -5914,7 +5874,6 @@
       <c r="G43" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -5938,7 +5897,6 @@
       <c r="G44" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
@@ -5962,7 +5920,6 @@
       <c r="G45" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H45" s="13"/>
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" ht="54" x14ac:dyDescent="0.3">
@@ -5987,7 +5944,6 @@
       <c r="G46" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
@@ -6011,7 +5967,6 @@
       <c r="G47" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -6035,7 +5990,6 @@
       <c r="G48" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
@@ -6059,7 +6013,6 @@
       <c r="G49" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
@@ -6083,7 +6036,6 @@
       <c r="G50" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H50" s="13"/>
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" ht="54" x14ac:dyDescent="0.3">
@@ -6108,7 +6060,6 @@
       <c r="G51" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
@@ -6132,7 +6083,6 @@
       <c r="G52" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
@@ -6156,7 +6106,6 @@
       <c r="G53" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
@@ -6180,7 +6129,6 @@
       <c r="G54" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
@@ -6204,7 +6152,6 @@
       <c r="G55" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
@@ -6228,7 +6175,6 @@
       <c r="G56" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
@@ -6252,7 +6198,6 @@
       <c r="G57" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
@@ -6276,7 +6221,6 @@
       <c r="G58" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
@@ -6300,7 +6244,6 @@
       <c r="G59" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
@@ -6324,7 +6267,6 @@
       <c r="G60" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
@@ -6348,7 +6290,6 @@
       <c r="G61" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
@@ -6372,7 +6313,6 @@
       <c r="G62" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
@@ -6396,7 +6336,6 @@
       <c r="G63" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
@@ -6420,9 +6359,8 @@
       <c r="G64" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>966</v>
       </c>
@@ -6444,9 +6382,8 @@
       <c r="G65" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H65" s="13"/>
-    </row>
-    <row r="66" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>969</v>
       </c>
@@ -6468,9 +6405,8 @@
       <c r="G66" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>970</v>
       </c>
@@ -6492,9 +6428,8 @@
       <c r="G67" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>17</v>
       </c>
@@ -6516,9 +6451,8 @@
       <c r="G68" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H68" s="13"/>
-    </row>
-    <row r="69" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>971</v>
       </c>
@@ -6540,9 +6474,8 @@
       <c r="G69" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H69" s="13"/>
-    </row>
-    <row r="70" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>972</v>
       </c>
@@ -6564,9 +6497,8 @@
       <c r="G70" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H70" s="13"/>
-    </row>
-    <row r="71" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>973</v>
       </c>
@@ -6588,9 +6520,8 @@
       <c r="G71" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H71" s="13"/>
-    </row>
-    <row r="72" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>974</v>
       </c>
@@ -6612,9 +6543,8 @@
       <c r="G72" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>925</v>
       </c>
@@ -6636,9 +6566,8 @@
       <c r="G73" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H73" s="13"/>
-    </row>
-    <row r="74" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>975</v>
       </c>
@@ -6660,9 +6589,8 @@
       <c r="G74" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H74" s="13"/>
-    </row>
-    <row r="75" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>977</v>
       </c>
@@ -6684,9 +6612,8 @@
       <c r="G75" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H75" s="13"/>
-    </row>
-    <row r="76" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>978</v>
       </c>
@@ -6708,9 +6635,8 @@
       <c r="G76" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H76" s="13"/>
-    </row>
-    <row r="77" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>939</v>
       </c>
@@ -6732,9 +6658,8 @@
       <c r="G77" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H77" s="13"/>
-    </row>
-    <row r="78" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>979</v>
       </c>
@@ -6756,9 +6681,8 @@
       <c r="G78" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H78" s="13"/>
-    </row>
-    <row r="79" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>422</v>
       </c>
@@ -6780,9 +6704,8 @@
       <c r="G79" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H79" s="13"/>
-    </row>
-    <row r="80" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>980</v>
       </c>
@@ -6804,7 +6727,6 @@
       <c r="G80" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H80" s="13"/>
     </row>
     <row r="81" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
@@ -6828,7 +6750,6 @@
       <c r="G81" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
@@ -6852,7 +6773,6 @@
       <c r="G82" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
@@ -6876,7 +6796,6 @@
       <c r="G83" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
@@ -6900,7 +6819,6 @@
       <c r="G84" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
@@ -6924,7 +6842,6 @@
       <c r="G85" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H85" s="13"/>
     </row>
     <row r="86" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
@@ -6948,7 +6865,6 @@
       <c r="G86" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
@@ -6972,7 +6888,6 @@
       <c r="G87" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H87" s="13"/>
     </row>
     <row r="88" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
@@ -6996,7 +6911,6 @@
       <c r="G88" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
@@ -7020,7 +6934,6 @@
       <c r="G89" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
@@ -7044,7 +6957,6 @@
       <c r="G90" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
@@ -7068,7 +6980,6 @@
       <c r="G91" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
@@ -7092,7 +7003,6 @@
       <c r="G92" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
@@ -7116,7 +7026,6 @@
       <c r="G93" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H93" s="13"/>
       <c r="I93" s="7"/>
     </row>
     <row r="94" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -7141,7 +7050,6 @@
       <c r="G94" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
@@ -7165,7 +7073,6 @@
       <c r="G95" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H95" s="13"/>
     </row>
     <row r="96" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
@@ -7189,9 +7096,8 @@
       <c r="G96" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H96" s="13"/>
-    </row>
-    <row r="97" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>993</v>
       </c>
@@ -7213,7 +7119,6 @@
       <c r="G97" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H97" s="13"/>
     </row>
     <row r="98" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
@@ -7237,7 +7142,6 @@
       <c r="G98" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H98" s="13"/>
     </row>
     <row r="99" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
@@ -7261,7 +7165,6 @@
       <c r="G99" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H99" s="13"/>
     </row>
     <row r="100" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
@@ -7285,7 +7188,6 @@
       <c r="G100" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
@@ -7309,7 +7211,6 @@
       <c r="G101" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H101" s="13"/>
     </row>
     <row r="102" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
@@ -7333,7 +7234,6 @@
       <c r="G102" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H102" s="13"/>
       <c r="I102" s="7"/>
     </row>
     <row r="103" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -7358,7 +7258,6 @@
       <c r="G103" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H103" s="13"/>
     </row>
     <row r="104" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
@@ -7382,9 +7281,8 @@
       <c r="G104" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H104" s="13"/>
-    </row>
-    <row r="105" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>379</v>
       </c>
@@ -7406,7 +7304,6 @@
       <c r="G105" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H105" s="13"/>
     </row>
     <row r="106" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
@@ -7430,7 +7327,6 @@
       <c r="G106" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H106" s="13"/>
     </row>
     <row r="107" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
@@ -7454,7 +7350,6 @@
       <c r="G107" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:9" ht="72" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
@@ -7478,7 +7373,6 @@
       <c r="G108" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H108" s="13"/>
     </row>
     <row r="109" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
@@ -7502,7 +7396,6 @@
       <c r="G109" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H109" s="13"/>
     </row>
     <row r="110" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
@@ -7526,7 +7419,6 @@
       <c r="G110" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
@@ -7550,7 +7442,6 @@
       <c r="G111" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H111" s="13"/>
     </row>
     <row r="112" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
@@ -7574,7 +7465,6 @@
       <c r="G112" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
@@ -7598,7 +7488,6 @@
       <c r="G113" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H113" s="13"/>
     </row>
     <row r="114" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
@@ -7622,7 +7511,6 @@
       <c r="G114" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H114" s="13"/>
       <c r="I114" s="7"/>
     </row>
     <row r="115" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -7647,7 +7535,6 @@
       <c r="G115" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
@@ -7671,7 +7558,6 @@
       <c r="G116" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H116" s="13"/>
     </row>
     <row r="117" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
@@ -7695,7 +7581,6 @@
       <c r="G117" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H117" s="13"/>
     </row>
     <row r="118" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
@@ -7719,7 +7604,6 @@
       <c r="G118" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H118" s="13"/>
     </row>
     <row r="119" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
@@ -7743,9 +7627,8 @@
       <c r="G119" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H119" s="13"/>
-    </row>
-    <row r="120" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>1003</v>
       </c>
@@ -7767,7 +7650,6 @@
       <c r="G120" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H120" s="13"/>
     </row>
     <row r="121" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
@@ -7791,7 +7673,6 @@
       <c r="G121" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H121" s="13"/>
     </row>
     <row r="122" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
@@ -7815,7 +7696,6 @@
       <c r="G122" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H122" s="13"/>
     </row>
     <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
@@ -7839,7 +7719,6 @@
       <c r="G123" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H123" s="13"/>
     </row>
     <row r="124" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
@@ -7863,7 +7742,6 @@
       <c r="G124" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
@@ -7887,7 +7765,6 @@
       <c r="G125" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H125" s="13"/>
     </row>
     <row r="126" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
@@ -7911,7 +7788,6 @@
       <c r="G126" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H126" s="13"/>
     </row>
     <row r="127" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
@@ -7935,7 +7811,6 @@
       <c r="G127" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
@@ -7959,7 +7834,6 @@
       <c r="G128" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
@@ -7983,9 +7857,8 @@
       <c r="G129" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H129" s="13"/>
-    </row>
-    <row r="130" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>1010</v>
       </c>
@@ -8007,7 +7880,6 @@
       <c r="G130" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H130" s="13"/>
     </row>
     <row r="131" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
@@ -8031,7 +7903,6 @@
       <c r="G131" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H131" s="13"/>
     </row>
     <row r="132" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
@@ -8055,7 +7926,6 @@
       <c r="G132" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H132" s="13"/>
     </row>
     <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
@@ -8079,7 +7949,6 @@
       <c r="G133" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H133" s="13"/>
     </row>
     <row r="134" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
@@ -8103,7 +7972,6 @@
       <c r="G134" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H134" s="13"/>
       <c r="I134" s="7"/>
     </row>
     <row r="135" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -8128,7 +7996,6 @@
       <c r="G135" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
@@ -8152,7 +8019,6 @@
       <c r="G136" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H136" s="13"/>
     </row>
     <row r="137" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
@@ -8176,7 +8042,6 @@
       <c r="G137" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H137" s="13"/>
     </row>
     <row r="138" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
@@ -8200,7 +8065,6 @@
       <c r="G138" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
@@ -8224,7 +8088,6 @@
       <c r="G139" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H139" s="13"/>
     </row>
     <row r="140" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
@@ -8248,7 +8111,6 @@
       <c r="G140" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
@@ -8272,7 +8134,6 @@
       <c r="G141" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
@@ -8296,7 +8157,6 @@
       <c r="G142" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
@@ -8320,7 +8180,6 @@
       <c r="G143" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
@@ -8344,9 +8203,8 @@
       <c r="G144" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H144" s="13"/>
-    </row>
-    <row r="145" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>209</v>
       </c>
@@ -8368,9 +8226,8 @@
       <c r="G145" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H145" s="13"/>
-    </row>
-    <row r="146" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>1017</v>
       </c>
@@ -8392,9 +8249,8 @@
       <c r="G146" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H146" s="13"/>
-    </row>
-    <row r="147" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>1018</v>
       </c>
@@ -8416,9 +8272,8 @@
       <c r="G147" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H147" s="13"/>
-    </row>
-    <row r="148" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>1019</v>
       </c>
@@ -8440,9 +8295,8 @@
       <c r="G148" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H148" s="13"/>
-    </row>
-    <row r="149" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>1020</v>
       </c>
@@ -8464,9 +8318,8 @@
       <c r="G149" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H149" s="13"/>
-    </row>
-    <row r="150" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>322</v>
       </c>
@@ -8488,9 +8341,8 @@
       <c r="G150" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H150" s="13"/>
-    </row>
-    <row r="151" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>1021</v>
       </c>
@@ -8512,9 +8364,8 @@
       <c r="G151" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H151" s="13"/>
-    </row>
-    <row r="152" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>1022</v>
       </c>
@@ -8536,9 +8387,8 @@
       <c r="G152" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H152" s="13"/>
-    </row>
-    <row r="153" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>167</v>
       </c>
@@ -8560,9 +8410,8 @@
       <c r="G153" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H153" s="13"/>
-    </row>
-    <row r="154" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>1023</v>
       </c>
@@ -8584,9 +8433,8 @@
       <c r="G154" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H154" s="13"/>
-    </row>
-    <row r="155" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>1024</v>
       </c>
@@ -8608,9 +8456,8 @@
       <c r="G155" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H155" s="13"/>
-    </row>
-    <row r="156" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>998</v>
       </c>
@@ -8632,9 +8479,8 @@
       <c r="G156" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H156" s="13"/>
-    </row>
-    <row r="157" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>1025</v>
       </c>
@@ -8656,9 +8502,8 @@
       <c r="G157" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H157" s="13"/>
-    </row>
-    <row r="158" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>944</v>
       </c>
@@ -8680,9 +8525,8 @@
       <c r="G158" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H158" s="13"/>
-    </row>
-    <row r="159" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>1008</v>
       </c>
@@ -8704,9 +8548,8 @@
       <c r="G159" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H159" s="13"/>
-    </row>
-    <row r="160" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>217</v>
       </c>
@@ -8728,9 +8571,8 @@
       <c r="G160" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H160" s="13"/>
-    </row>
-    <row r="161" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>972</v>
       </c>
@@ -8752,9 +8594,8 @@
       <c r="G161" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H161" s="13"/>
-    </row>
-    <row r="162" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>491</v>
       </c>
@@ -8776,9 +8617,8 @@
       <c r="G162" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H162" s="13"/>
-    </row>
-    <row r="163" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>433</v>
       </c>
@@ -8800,9 +8640,8 @@
       <c r="G163" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H163" s="13"/>
-    </row>
-    <row r="164" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>1026</v>
       </c>
@@ -8824,9 +8663,8 @@
       <c r="G164" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H164" s="13"/>
-    </row>
-    <row r="165" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>66</v>
       </c>
@@ -8848,9 +8686,8 @@
       <c r="G165" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H165" s="13"/>
-    </row>
-    <row r="166" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>167</v>
       </c>
@@ -8872,9 +8709,8 @@
       <c r="G166" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H166" s="13"/>
-    </row>
-    <row r="167" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>971</v>
       </c>
@@ -8896,9 +8732,8 @@
       <c r="G167" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H167" s="13"/>
-    </row>
-    <row r="168" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>144</v>
       </c>
@@ -8920,9 +8755,8 @@
       <c r="G168" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H168" s="13"/>
-    </row>
-    <row r="169" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>422</v>
       </c>
@@ -8944,9 +8778,8 @@
       <c r="G169" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H169" s="13"/>
-    </row>
-    <row r="170" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>1027</v>
       </c>
@@ -8968,9 +8801,8 @@
       <c r="G170" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H170" s="13"/>
-    </row>
-    <row r="171" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>416</v>
       </c>
@@ -8992,9 +8824,8 @@
       <c r="G171" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H171" s="13"/>
-    </row>
-    <row r="172" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>427</v>
       </c>
@@ -9016,9 +8847,8 @@
       <c r="G172" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H172" s="13"/>
-    </row>
-    <row r="173" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>348</v>
       </c>
@@ -9040,9 +8870,8 @@
       <c r="G173" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H173" s="13"/>
-    </row>
-    <row r="174" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>988</v>
       </c>
@@ -9064,9 +8893,8 @@
       <c r="G174" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H174" s="13"/>
-    </row>
-    <row r="175" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>1028</v>
       </c>
@@ -9088,9 +8916,8 @@
       <c r="G175" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H175" s="13"/>
-    </row>
-    <row r="176" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>1029</v>
       </c>
@@ -9112,7 +8939,6 @@
       <c r="G176" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H176" s="13"/>
     </row>
     <row r="177" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
@@ -9136,7 +8962,6 @@
       <c r="G177" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H177" s="13"/>
     </row>
     <row r="178" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
@@ -9160,7 +8985,6 @@
       <c r="G178" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H178" s="13"/>
     </row>
     <row r="179" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
@@ -9184,7 +9008,6 @@
       <c r="G179" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H179" s="13"/>
     </row>
     <row r="180" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
@@ -9208,7 +9031,6 @@
       <c r="G180" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H180" s="13"/>
     </row>
     <row r="181" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
@@ -9232,7 +9054,6 @@
       <c r="G181" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H181" s="13"/>
     </row>
     <row r="182" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
@@ -9256,7 +9077,6 @@
       <c r="G182" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H182" s="13"/>
     </row>
     <row r="183" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
@@ -9280,7 +9100,6 @@
       <c r="G183" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H183" s="13"/>
     </row>
     <row r="184" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
@@ -9304,7 +9123,6 @@
       <c r="G184" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H184" s="13"/>
     </row>
     <row r="185" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
@@ -9328,7 +9146,6 @@
       <c r="G185" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H185" s="13"/>
     </row>
     <row r="186" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
@@ -9352,7 +9169,6 @@
       <c r="G186" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H186" s="13"/>
     </row>
     <row r="187" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
@@ -9376,7 +9192,6 @@
       <c r="G187" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H187" s="13"/>
     </row>
     <row r="188" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
@@ -9400,7 +9215,6 @@
       <c r="G188" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H188" s="13"/>
     </row>
     <row r="189" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
@@ -9424,7 +9238,7 @@
       <c r="G189" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H189" s="14"/>
+      <c r="H189" s="13"/>
     </row>
     <row r="190" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
@@ -9448,7 +9262,6 @@
       <c r="G190" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H190" s="13"/>
     </row>
     <row r="191" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
@@ -9472,7 +9285,6 @@
       <c r="G191" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H191" s="13"/>
     </row>
     <row r="192" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
@@ -9496,7 +9308,6 @@
       <c r="G192" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H192" s="13"/>
     </row>
     <row r="193" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
@@ -9520,7 +9331,6 @@
       <c r="G193" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H193" s="13"/>
     </row>
     <row r="194" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
@@ -9544,7 +9354,6 @@
       <c r="G194" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H194" s="13"/>
     </row>
     <row r="195" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
@@ -9568,7 +9377,6 @@
       <c r="G195" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H195" s="13"/>
     </row>
     <row r="196" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
@@ -9592,7 +9400,6 @@
       <c r="G196" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H196" s="13"/>
     </row>
     <row r="197" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
@@ -9616,7 +9423,6 @@
       <c r="G197" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H197" s="13"/>
     </row>
     <row r="198" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
@@ -9640,7 +9446,6 @@
       <c r="G198" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H198" s="13"/>
     </row>
     <row r="199" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
@@ -9664,7 +9469,6 @@
       <c r="G199" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H199" s="13"/>
     </row>
     <row r="200" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
@@ -9688,7 +9492,6 @@
       <c r="G200" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H200" s="13"/>
       <c r="I200" s="7"/>
     </row>
     <row r="201" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -9713,7 +9516,6 @@
       <c r="G201" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H201" s="13"/>
     </row>
     <row r="202" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
@@ -9737,7 +9539,6 @@
       <c r="G202" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H202" s="13"/>
     </row>
     <row r="203" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
@@ -9761,7 +9562,6 @@
       <c r="G203" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H203" s="13"/>
     </row>
     <row r="204" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
@@ -9785,7 +9585,6 @@
       <c r="G204" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H204" s="13"/>
     </row>
     <row r="205" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
@@ -9809,7 +9608,6 @@
       <c r="G205" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H205" s="13"/>
     </row>
     <row r="206" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
@@ -9833,7 +9631,6 @@
       <c r="G206" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H206" s="13"/>
     </row>
     <row r="207" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
@@ -9857,7 +9654,6 @@
       <c r="G207" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H207" s="13"/>
     </row>
     <row r="208" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
@@ -9881,9 +9677,8 @@
       <c r="G208" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H208" s="13"/>
-    </row>
-    <row r="209" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>21</v>
       </c>
@@ -9905,9 +9700,8 @@
       <c r="G209" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H209" s="13"/>
-    </row>
-    <row r="210" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>1040</v>
       </c>
@@ -9929,9 +9723,8 @@
       <c r="G210" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H210" s="13"/>
-    </row>
-    <row r="211" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>463</v>
       </c>
@@ -9953,9 +9746,8 @@
       <c r="G211" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="H211" s="13"/>
-    </row>
-    <row r="212" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>115</v>
       </c>
@@ -9977,9 +9769,8 @@
       <c r="G212" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H212" s="13"/>
-    </row>
-    <row r="213" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>200</v>
       </c>
@@ -10001,9 +9792,8 @@
       <c r="G213" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H213" s="13"/>
-    </row>
-    <row r="214" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>1041</v>
       </c>
@@ -10025,9 +9815,8 @@
       <c r="G214" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H214" s="13"/>
-    </row>
-    <row r="215" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>13</v>
       </c>
@@ -10049,9 +9838,8 @@
       <c r="G215" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H215" s="13"/>
-    </row>
-    <row r="216" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>27</v>
       </c>
@@ -10073,9 +9861,8 @@
       <c r="G216" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H216" s="13"/>
-    </row>
-    <row r="217" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>474</v>
       </c>
@@ -10097,9 +9884,8 @@
       <c r="G217" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H217" s="13"/>
-    </row>
-    <row r="218" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>185</v>
       </c>
@@ -10121,9 +9907,8 @@
       <c r="G218" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H218" s="13"/>
-    </row>
-    <row r="219" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>308</v>
       </c>
@@ -10145,9 +9930,8 @@
       <c r="G219" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H219" s="13"/>
-    </row>
-    <row r="220" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>467</v>
       </c>
@@ -10169,9 +9953,8 @@
       <c r="G220" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H220" s="13"/>
-    </row>
-    <row r="221" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>452</v>
       </c>
@@ -10193,9 +9976,8 @@
       <c r="G221" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H221" s="13"/>
-    </row>
-    <row r="222" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>375</v>
       </c>
@@ -10217,9 +9999,8 @@
       <c r="G222" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H222" s="13"/>
-    </row>
-    <row r="223" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>349</v>
       </c>
@@ -10241,9 +10022,8 @@
       <c r="G223" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H223" s="13"/>
-    </row>
-    <row r="224" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>353</v>
       </c>
@@ -10265,7 +10045,6 @@
       <c r="G224" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H224" s="13"/>
     </row>
     <row r="225" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
@@ -10289,7 +10068,6 @@
       <c r="G225" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H225" s="13"/>
     </row>
     <row r="226" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
@@ -10313,7 +10091,6 @@
       <c r="G226" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H226" s="13"/>
     </row>
     <row r="227" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
@@ -10337,7 +10114,6 @@
       <c r="G227" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H227" s="13"/>
     </row>
     <row r="228" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
@@ -10361,7 +10137,6 @@
       <c r="G228" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H228" s="13"/>
     </row>
     <row r="229" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
@@ -10385,7 +10160,6 @@
       <c r="G229" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H229" s="13"/>
     </row>
     <row r="230" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
@@ -10409,7 +10183,6 @@
       <c r="G230" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H230" s="13"/>
     </row>
     <row r="231" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
@@ -10433,7 +10206,6 @@
       <c r="G231" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H231" s="13"/>
     </row>
     <row r="232" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
@@ -10457,7 +10229,6 @@
       <c r="G232" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H232" s="13"/>
     </row>
     <row r="233" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
@@ -10481,7 +10252,6 @@
       <c r="G233" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H233" s="13"/>
     </row>
     <row r="234" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A234" s="9" t="s">
@@ -10505,7 +10275,6 @@
       <c r="G234" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H234" s="13"/>
     </row>
     <row r="235" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
@@ -10529,7 +10298,6 @@
       <c r="G235" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H235" s="13"/>
     </row>
     <row r="236" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
@@ -10553,7 +10321,6 @@
       <c r="G236" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H236" s="13"/>
     </row>
     <row r="237" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
@@ -10577,7 +10344,6 @@
       <c r="G237" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H237" s="13"/>
     </row>
     <row r="238" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
@@ -10601,7 +10367,6 @@
       <c r="G238" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H238" s="13"/>
     </row>
     <row r="239" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
@@ -10625,7 +10390,6 @@
       <c r="G239" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H239" s="13"/>
     </row>
     <row r="240" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
@@ -10649,10 +10413,9 @@
       <c r="G240" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H240" s="13"/>
       <c r="I240" s="7"/>
     </row>
-    <row r="241" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>127</v>
       </c>
@@ -10674,9 +10437,8 @@
       <c r="G241" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H241" s="13"/>
-    </row>
-    <row r="242" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
         <v>270</v>
       </c>
@@ -10698,9 +10460,8 @@
       <c r="G242" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H242" s="13"/>
-    </row>
-    <row r="243" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>49</v>
       </c>
@@ -10722,9 +10483,8 @@
       <c r="G243" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H243" s="13"/>
-    </row>
-    <row r="244" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>48</v>
       </c>
@@ -10746,9 +10506,8 @@
       <c r="G244" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H244" s="13"/>
-    </row>
-    <row r="245" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>390</v>
       </c>
@@ -10770,9 +10529,8 @@
       <c r="G245" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H245" s="13"/>
-    </row>
-    <row r="246" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>495</v>
       </c>
@@ -10794,9 +10552,8 @@
       <c r="G246" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H246" s="13"/>
-    </row>
-    <row r="247" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="247" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A247" s="10" t="s">
         <v>356</v>
       </c>
@@ -10818,9 +10575,8 @@
       <c r="G247" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H247" s="13"/>
-    </row>
-    <row r="248" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>84</v>
       </c>
@@ -10842,9 +10598,8 @@
       <c r="G248" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H248" s="13"/>
-    </row>
-    <row r="249" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>17</v>
       </c>
@@ -10866,9 +10621,8 @@
       <c r="G249" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H249" s="13"/>
-    </row>
-    <row r="250" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>369</v>
       </c>
@@ -10890,9 +10644,8 @@
       <c r="G250" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H250" s="13"/>
-    </row>
-    <row r="251" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>351</v>
       </c>
@@ -10914,9 +10667,8 @@
       <c r="G251" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H251" s="13"/>
-    </row>
-    <row r="252" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>1042</v>
       </c>
@@ -10938,9 +10690,8 @@
       <c r="G252" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H252" s="13"/>
-    </row>
-    <row r="253" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>251</v>
       </c>
@@ -10962,9 +10713,8 @@
       <c r="G253" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H253" s="13"/>
-    </row>
-    <row r="254" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>153</v>
       </c>
@@ -10986,9 +10736,8 @@
       <c r="G254" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H254" s="13"/>
-    </row>
-    <row r="255" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>491</v>
       </c>
@@ -11010,9 +10759,8 @@
       <c r="G255" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H255" s="13"/>
-    </row>
-    <row r="256" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>460</v>
       </c>
@@ -11034,7 +10782,6 @@
       <c r="G256" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H256" s="13"/>
     </row>
     <row r="257" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
@@ -11058,7 +10805,6 @@
       <c r="G257" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H257" s="13"/>
     </row>
     <row r="258" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
@@ -11082,7 +10828,6 @@
       <c r="G258" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H258" s="13"/>
     </row>
     <row r="259" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
@@ -11106,7 +10851,6 @@
       <c r="G259" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H259" s="13"/>
     </row>
     <row r="260" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
@@ -11130,7 +10874,6 @@
       <c r="G260" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H260" s="13"/>
     </row>
     <row r="261" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
@@ -11154,7 +10897,6 @@
       <c r="G261" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H261" s="13"/>
       <c r="I261" s="7"/>
     </row>
     <row r="262" spans="1:9" ht="54" x14ac:dyDescent="0.3">
@@ -11179,7 +10921,6 @@
       <c r="G262" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H262" s="13"/>
     </row>
     <row r="263" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
@@ -11203,7 +10944,6 @@
       <c r="G263" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H263" s="13"/>
     </row>
     <row r="264" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
@@ -11227,7 +10967,6 @@
       <c r="G264" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H264" s="13"/>
     </row>
     <row r="265" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
@@ -11251,7 +10990,6 @@
       <c r="G265" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H265" s="13"/>
     </row>
     <row r="266" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
@@ -11275,7 +11013,6 @@
       <c r="G266" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H266" s="13"/>
     </row>
     <row r="267" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
@@ -11299,7 +11036,6 @@
       <c r="G267" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H267" s="13"/>
     </row>
     <row r="268" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
@@ -11323,7 +11059,6 @@
       <c r="G268" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H268" s="13"/>
     </row>
     <row r="269" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
@@ -11347,7 +11082,6 @@
       <c r="G269" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H269" s="13"/>
     </row>
     <row r="270" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
@@ -11371,7 +11105,6 @@
       <c r="G270" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H270" s="13"/>
     </row>
     <row r="271" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
@@ -11395,7 +11128,6 @@
       <c r="G271" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H271" s="13"/>
     </row>
     <row r="272" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
@@ -11419,9 +11151,8 @@
       <c r="G272" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H272" s="13"/>
-    </row>
-    <row r="273" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>182</v>
       </c>
@@ -11443,9 +11174,8 @@
       <c r="G273" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H273" s="13"/>
-    </row>
-    <row r="274" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>446</v>
       </c>
@@ -11467,9 +11197,8 @@
       <c r="G274" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H274" s="13"/>
-    </row>
-    <row r="275" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>404</v>
       </c>
@@ -11491,9 +11220,8 @@
       <c r="G275" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H275" s="13"/>
-    </row>
-    <row r="276" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>103</v>
       </c>
@@ -11515,9 +11243,8 @@
       <c r="G276" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H276" s="13"/>
-    </row>
-    <row r="277" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>292</v>
       </c>
@@ -11539,9 +11266,8 @@
       <c r="G277" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H277" s="13"/>
-    </row>
-    <row r="278" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>137</v>
       </c>
@@ -11563,9 +11289,8 @@
       <c r="G278" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H278" s="13"/>
-    </row>
-    <row r="279" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A279" s="7" t="s">
         <v>131</v>
       </c>
@@ -11587,9 +11312,8 @@
       <c r="G279" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H279" s="13"/>
-    </row>
-    <row r="280" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>240</v>
       </c>
@@ -11611,9 +11335,8 @@
       <c r="G280" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H280" s="13"/>
-    </row>
-    <row r="281" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
         <v>21</v>
       </c>
@@ -11635,9 +11358,8 @@
       <c r="G281" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H281" s="13"/>
-    </row>
-    <row r="282" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>185</v>
       </c>
@@ -11659,9 +11381,8 @@
       <c r="G282" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H282" s="13"/>
-    </row>
-    <row r="283" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>266</v>
       </c>
@@ -11683,9 +11404,8 @@
       <c r="G283" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H283" s="13"/>
-    </row>
-    <row r="284" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>419</v>
       </c>
@@ -11707,9 +11427,8 @@
       <c r="G284" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H284" s="13"/>
-    </row>
-    <row r="285" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>387</v>
       </c>
@@ -11731,9 +11450,8 @@
       <c r="G285" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H285" s="13"/>
-    </row>
-    <row r="286" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>506</v>
       </c>
@@ -11755,9 +11473,8 @@
       <c r="G286" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H286" s="13"/>
-    </row>
-    <row r="287" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>509</v>
       </c>
@@ -11779,9 +11496,8 @@
       <c r="G287" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H287" s="13"/>
-    </row>
-    <row r="288" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>237</v>
       </c>
@@ -11803,9 +11519,8 @@
       <c r="G288" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H288" s="13"/>
-    </row>
-    <row r="289" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>395</v>
       </c>
@@ -11827,9 +11542,8 @@
       <c r="G289" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H289" s="13"/>
-    </row>
-    <row r="290" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>441</v>
       </c>
@@ -11851,9 +11565,8 @@
       <c r="G290" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H290" s="13"/>
-    </row>
-    <row r="291" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
         <v>202</v>
       </c>
@@ -11875,9 +11588,8 @@
       <c r="G291" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H291" s="13"/>
-    </row>
-    <row r="292" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>482</v>
       </c>
@@ -11899,9 +11611,8 @@
       <c r="G292" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H292" s="13"/>
-    </row>
-    <row r="293" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A293" s="7" t="s">
         <v>202</v>
       </c>
@@ -11923,9 +11634,8 @@
       <c r="G293" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H293" s="13"/>
-    </row>
-    <row r="294" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A294" s="7" t="s">
         <v>205</v>
       </c>
@@ -11947,9 +11657,8 @@
       <c r="G294" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H294" s="13"/>
-    </row>
-    <row r="295" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>345</v>
       </c>
@@ -11971,9 +11680,8 @@
       <c r="G295" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H295" s="13"/>
-    </row>
-    <row r="296" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A296" s="7" t="s">
         <v>170</v>
       </c>
@@ -11995,9 +11703,8 @@
       <c r="G296" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H296" s="13"/>
-    </row>
-    <row r="297" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>194</v>
       </c>
@@ -12019,9 +11726,8 @@
       <c r="G297" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H297" s="13"/>
-    </row>
-    <row r="298" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A298" s="7" t="s">
         <v>1067</v>
       </c>
@@ -12043,9 +11749,8 @@
       <c r="G298" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H298" s="13"/>
-    </row>
-    <row r="299" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>46</v>
       </c>
@@ -12067,9 +11772,8 @@
       <c r="G299" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H299" s="13"/>
-    </row>
-    <row r="300" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>129</v>
       </c>
@@ -12091,9 +11795,8 @@
       <c r="G300" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H300" s="13"/>
-    </row>
-    <row r="301" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>365</v>
       </c>
@@ -12115,9 +11818,8 @@
       <c r="G301" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H301" s="13"/>
-    </row>
-    <row r="302" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>361</v>
       </c>
@@ -12139,9 +11841,8 @@
       <c r="G302" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H302" s="13"/>
-    </row>
-    <row r="303" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>43</v>
       </c>
@@ -12163,9 +11864,8 @@
       <c r="G303" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H303" s="13"/>
-    </row>
-    <row r="304" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="304" spans="1:7" ht="54" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
         <v>224</v>
       </c>
@@ -12187,9 +11887,8 @@
       <c r="G304" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H304" s="13"/>
-    </row>
-    <row r="305" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A305" s="7" t="s">
         <v>271</v>
       </c>
@@ -12211,9 +11910,8 @@
       <c r="G305" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H305" s="13"/>
-    </row>
-    <row r="306" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>84</v>
       </c>
@@ -12235,9 +11933,8 @@
       <c r="G306" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H306" s="13"/>
-    </row>
-    <row r="307" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>379</v>
       </c>
@@ -12259,9 +11956,8 @@
       <c r="G307" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H307" s="13"/>
-    </row>
-    <row r="308" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>925</v>
       </c>
@@ -12283,9 +11979,8 @@
       <c r="G308" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H308" s="13"/>
-    </row>
-    <row r="309" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>333</v>
       </c>
@@ -12307,9 +12002,8 @@
       <c r="G309" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H309" s="13"/>
-    </row>
-    <row r="310" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>162</v>
       </c>
@@ -12331,9 +12025,8 @@
       <c r="G310" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H310" s="13"/>
-    </row>
-    <row r="311" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>1042</v>
       </c>
@@ -12355,9 +12048,8 @@
       <c r="G311" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H311" s="13"/>
-    </row>
-    <row r="312" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>161</v>
       </c>
@@ -12379,9 +12071,8 @@
       <c r="G312" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H312" s="13"/>
-    </row>
-    <row r="313" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>1044</v>
       </c>
@@ -12403,9 +12094,8 @@
       <c r="G313" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H313" s="13"/>
-    </row>
-    <row r="314" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>11</v>
       </c>
@@ -12427,9 +12117,8 @@
       <c r="G314" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H314" s="13"/>
-    </row>
-    <row r="315" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
         <v>456</v>
       </c>
@@ -12451,9 +12140,8 @@
       <c r="G315" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H315" s="13"/>
-    </row>
-    <row r="316" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A316" s="7" t="s">
         <v>456</v>
       </c>
@@ -12475,9 +12163,8 @@
       <c r="G316" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H316" s="13"/>
-    </row>
-    <row r="317" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>463</v>
       </c>
@@ -12499,9 +12186,8 @@
       <c r="G317" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H317" s="13"/>
-    </row>
-    <row r="318" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>424</v>
       </c>
@@ -12523,9 +12209,8 @@
       <c r="G318" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H318" s="13"/>
-    </row>
-    <row r="319" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
         <v>120</v>
       </c>
@@ -12547,9 +12232,8 @@
       <c r="G319" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H319" s="13"/>
-    </row>
-    <row r="320" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>318</v>
       </c>
@@ -12571,9 +12255,8 @@
       <c r="G320" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H320" s="13"/>
-    </row>
-    <row r="321" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>299</v>
       </c>
@@ -12595,9 +12278,8 @@
       <c r="G321" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H321" s="13"/>
-    </row>
-    <row r="322" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>396</v>
       </c>
@@ -12619,9 +12301,8 @@
       <c r="G322" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H322" s="13"/>
-    </row>
-    <row r="323" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>1068</v>
       </c>
@@ -12643,9 +12324,8 @@
       <c r="G323" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H323" s="13"/>
-    </row>
-    <row r="324" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>1069</v>
       </c>
@@ -12667,9 +12347,8 @@
       <c r="G324" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H324" s="13"/>
-    </row>
-    <row r="325" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>1070</v>
       </c>
@@ -12691,9 +12370,8 @@
       <c r="G325" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H325" s="13"/>
-    </row>
-    <row r="326" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>217</v>
       </c>
@@ -12715,9 +12393,8 @@
       <c r="G326" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H326" s="13"/>
-    </row>
-    <row r="327" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>141</v>
       </c>
@@ -12739,9 +12416,8 @@
       <c r="G327" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H327" s="13"/>
-    </row>
-    <row r="328" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>88</v>
       </c>
@@ -12763,9 +12439,8 @@
       <c r="G328" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H328" s="13"/>
-    </row>
-    <row r="329" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>234</v>
       </c>
@@ -12787,9 +12462,8 @@
       <c r="G329" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H329" s="13"/>
-    </row>
-    <row r="330" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>381</v>
       </c>
@@ -12811,9 +12485,8 @@
       <c r="G330" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H330" s="13"/>
-    </row>
-    <row r="331" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>200</v>
       </c>
@@ -12835,9 +12508,8 @@
       <c r="G331" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H331" s="13"/>
-    </row>
-    <row r="332" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>80</v>
       </c>
@@ -12859,9 +12531,8 @@
       <c r="G332" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H332" s="13"/>
-    </row>
-    <row r="333" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>285</v>
       </c>
@@ -12883,9 +12554,8 @@
       <c r="G333" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H333" s="13"/>
-    </row>
-    <row r="334" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>198</v>
       </c>
@@ -12907,9 +12577,8 @@
       <c r="G334" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H334" s="13"/>
-    </row>
-    <row r="335" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>232</v>
       </c>
@@ -12931,9 +12600,8 @@
       <c r="G335" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H335" s="13"/>
-    </row>
-    <row r="336" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>398</v>
       </c>
@@ -12955,9 +12623,8 @@
       <c r="G336" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H336" s="13"/>
-    </row>
-    <row r="337" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>1045</v>
       </c>
@@ -12979,9 +12646,8 @@
       <c r="G337" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H337" s="13"/>
-    </row>
-    <row r="338" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>1045</v>
       </c>
@@ -13003,9 +12669,8 @@
       <c r="G338" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H338" s="13"/>
-    </row>
-    <row r="339" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>230</v>
       </c>
@@ -13027,9 +12692,8 @@
       <c r="G339" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H339" s="13"/>
-    </row>
-    <row r="340" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>144</v>
       </c>
@@ -13051,9 +12715,8 @@
       <c r="G340" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H340" s="13"/>
-    </row>
-    <row r="341" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>367</v>
       </c>
@@ -13075,9 +12738,8 @@
       <c r="G341" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H341" s="13"/>
-    </row>
-    <row r="342" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>501</v>
       </c>
@@ -13099,9 +12761,8 @@
       <c r="G342" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H342" s="13"/>
-    </row>
-    <row r="343" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>244</v>
       </c>
@@ -13123,9 +12784,8 @@
       <c r="G343" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H343" s="13"/>
-    </row>
-    <row r="344" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>401</v>
       </c>
@@ -13147,9 +12807,8 @@
       <c r="G344" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H344" s="13"/>
-    </row>
-    <row r="345" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>110</v>
       </c>
@@ -13171,9 +12830,8 @@
       <c r="G345" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H345" s="13"/>
-    </row>
-    <row r="346" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>147</v>
       </c>
@@ -13195,9 +12853,8 @@
       <c r="G346" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H346" s="13"/>
-    </row>
-    <row r="347" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>235</v>
       </c>
@@ -13219,9 +12876,8 @@
       <c r="G347" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H347" s="13"/>
-    </row>
-    <row r="348" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
         <v>287</v>
       </c>
@@ -13243,9 +12899,8 @@
       <c r="G348" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H348" s="13"/>
-    </row>
-    <row r="349" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="349" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>450</v>
       </c>
@@ -13267,9 +12922,8 @@
       <c r="G349" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H349" s="13"/>
-    </row>
-    <row r="350" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="350" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>31</v>
       </c>
@@ -13291,9 +12945,8 @@
       <c r="G350" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H350" s="13"/>
-    </row>
-    <row r="351" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="351" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
         <v>222</v>
       </c>
@@ -13315,9 +12968,8 @@
       <c r="G351" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H351" s="13"/>
-    </row>
-    <row r="352" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="352" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>290</v>
       </c>
@@ -13339,7 +12991,6 @@
       <c r="G352" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H352" s="13"/>
     </row>
     <row r="353" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
@@ -13363,7 +13014,6 @@
       <c r="G353" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H353" s="13"/>
     </row>
     <row r="354" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
@@ -13387,7 +13037,6 @@
       <c r="G354" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H354" s="13"/>
     </row>
     <row r="355" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
@@ -13411,7 +13060,6 @@
       <c r="G355" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H355" s="13"/>
     </row>
     <row r="356" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
@@ -13435,7 +13083,6 @@
       <c r="G356" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H356" s="13"/>
     </row>
     <row r="357" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
@@ -13459,7 +13106,6 @@
       <c r="G357" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H357" s="13"/>
     </row>
     <row r="358" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
@@ -13483,7 +13129,6 @@
       <c r="G358" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H358" s="13"/>
     </row>
     <row r="359" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
@@ -13507,7 +13152,6 @@
       <c r="G359" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H359" s="13"/>
     </row>
     <row r="360" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
@@ -13531,7 +13175,6 @@
       <c r="G360" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H360" s="13"/>
     </row>
     <row r="361" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
@@ -13555,7 +13198,6 @@
       <c r="G361" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H361" s="13"/>
     </row>
     <row r="362" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
@@ -13579,7 +13221,6 @@
       <c r="G362" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H362" s="13"/>
       <c r="I362" s="7"/>
     </row>
     <row r="363" spans="1:9" ht="54" x14ac:dyDescent="0.3">
@@ -13604,7 +13245,6 @@
       <c r="G363" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H363" s="13"/>
     </row>
     <row r="364" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
@@ -13628,7 +13268,6 @@
       <c r="G364" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H364" s="13"/>
     </row>
     <row r="365" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
@@ -13652,7 +13291,6 @@
       <c r="G365" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H365" s="13"/>
     </row>
     <row r="366" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
@@ -13676,7 +13314,6 @@
       <c r="G366" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H366" s="13"/>
     </row>
     <row r="367" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
@@ -13700,7 +13337,6 @@
       <c r="G367" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H367" s="13"/>
     </row>
     <row r="368" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
@@ -13724,7 +13360,6 @@
       <c r="G368" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H368" s="13"/>
     </row>
     <row r="369" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
@@ -13748,7 +13383,6 @@
       <c r="G369" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H369" s="13"/>
     </row>
     <row r="370" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
@@ -13772,7 +13406,6 @@
       <c r="G370" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H370" s="13"/>
     </row>
     <row r="371" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
@@ -13796,7 +13429,6 @@
       <c r="G371" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H371" s="13"/>
     </row>
     <row r="372" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
@@ -13820,7 +13452,6 @@
       <c r="G372" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H372" s="13"/>
       <c r="I372" s="7"/>
     </row>
     <row r="373" spans="1:9" ht="54" x14ac:dyDescent="0.3">
@@ -13845,7 +13476,6 @@
       <c r="G373" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H373" s="13"/>
     </row>
     <row r="374" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
@@ -13869,7 +13499,6 @@
       <c r="G374" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H374" s="13"/>
     </row>
     <row r="375" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A375" s="4" t="s">
@@ -13893,7 +13522,6 @@
       <c r="G375" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H375" s="13"/>
     </row>
     <row r="376" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
@@ -13917,7 +13545,6 @@
       <c r="G376" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H376" s="13"/>
     </row>
     <row r="377" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
@@ -13941,7 +13568,6 @@
       <c r="G377" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H377" s="13"/>
     </row>
     <row r="378" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
@@ -13965,7 +13591,6 @@
       <c r="G378" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H378" s="13"/>
     </row>
     <row r="379" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
@@ -13989,7 +13614,6 @@
       <c r="G379" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H379" s="13"/>
     </row>
     <row r="380" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
@@ -14013,7 +13637,6 @@
       <c r="G380" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H380" s="13"/>
     </row>
     <row r="381" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
@@ -14037,7 +13660,6 @@
       <c r="G381" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H381" s="13"/>
     </row>
     <row r="382" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
@@ -14061,7 +13683,6 @@
       <c r="G382" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H382" s="13"/>
     </row>
     <row r="383" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
@@ -14085,7 +13706,6 @@
       <c r="G383" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H383" s="13"/>
     </row>
     <row r="384" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
@@ -14109,9 +13729,8 @@
       <c r="G384" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H384" s="13"/>
-    </row>
-    <row r="385" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="385" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
         <v>86</v>
       </c>
@@ -14133,9 +13752,8 @@
       <c r="G385" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H385" s="13"/>
-    </row>
-    <row r="386" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="386" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>189</v>
       </c>
@@ -14157,9 +13775,8 @@
       <c r="G386" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H386" s="13"/>
-    </row>
-    <row r="387" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="387" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>25</v>
       </c>
@@ -14181,9 +13798,8 @@
       <c r="G387" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H387" s="13"/>
-    </row>
-    <row r="388" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="388" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>188</v>
       </c>
@@ -14205,9 +13821,8 @@
       <c r="G388" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H388" s="13"/>
-    </row>
-    <row r="389" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="389" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>462</v>
       </c>
@@ -14229,9 +13844,8 @@
       <c r="G389" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H389" s="13"/>
-    </row>
-    <row r="390" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="390" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>487</v>
       </c>
@@ -14253,9 +13867,8 @@
       <c r="G390" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H390" s="13"/>
-    </row>
-    <row r="391" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="391" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>196</v>
       </c>
@@ -14277,9 +13890,8 @@
       <c r="G391" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H391" s="13"/>
-    </row>
-    <row r="392" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="392" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
         <v>125</v>
       </c>
@@ -14301,9 +13913,8 @@
       <c r="G392" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H392" s="13"/>
-    </row>
-    <row r="393" spans="1:8" ht="72" x14ac:dyDescent="0.35">
+    </row>
+    <row r="393" spans="1:7" ht="72" x14ac:dyDescent="0.35">
       <c r="A393" s="4" t="s">
         <v>226</v>
       </c>
@@ -14325,9 +13936,8 @@
       <c r="G393" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H393" s="13"/>
-    </row>
-    <row r="394" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="394" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>77</v>
       </c>
@@ -14349,9 +13959,8 @@
       <c r="G394" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H394" s="13"/>
-    </row>
-    <row r="395" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="395" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>146</v>
       </c>
@@ -14373,9 +13982,8 @@
       <c r="G395" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H395" s="13"/>
-    </row>
-    <row r="396" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="396" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>127</v>
       </c>
@@ -14397,9 +14005,8 @@
       <c r="G396" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H396" s="13"/>
-    </row>
-    <row r="397" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="397" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A397" s="4" t="s">
         <v>502</v>
       </c>
@@ -14421,9 +14028,8 @@
       <c r="G397" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H397" s="13"/>
-    </row>
-    <row r="398" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="398" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>477</v>
       </c>
@@ -14445,9 +14051,8 @@
       <c r="G398" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H398" s="13"/>
-    </row>
-    <row r="399" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="399" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>326</v>
       </c>
@@ -14469,9 +14074,8 @@
       <c r="G399" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H399" s="13"/>
-    </row>
-    <row r="400" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="400" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>301</v>
       </c>
@@ -14493,9 +14097,8 @@
       <c r="G400" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H400" s="13"/>
-    </row>
-    <row r="401" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="401" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>345</v>
       </c>
@@ -14517,9 +14120,8 @@
       <c r="G401" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H401" s="13"/>
-    </row>
-    <row r="402" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="402" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>303</v>
       </c>
@@ -14541,9 +14143,8 @@
       <c r="G402" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H402" s="13"/>
-    </row>
-    <row r="403" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="403" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>54</v>
       </c>
@@ -14565,9 +14166,8 @@
       <c r="G403" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H403" s="13"/>
-    </row>
-    <row r="404" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="404" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>326</v>
       </c>
@@ -14589,9 +14189,8 @@
       <c r="G404" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H404" s="13"/>
-    </row>
-    <row r="405" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="405" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>29</v>
       </c>
@@ -14613,9 +14212,8 @@
       <c r="G405" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H405" s="13"/>
-    </row>
-    <row r="406" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="406" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A406" s="7" t="s">
         <v>73</v>
       </c>
@@ -14637,9 +14235,8 @@
       <c r="G406" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H406" s="13"/>
-    </row>
-    <row r="407" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="407" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>443</v>
       </c>
@@ -14661,9 +14258,8 @@
       <c r="G407" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H407" s="13"/>
-    </row>
-    <row r="408" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="408" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>477</v>
       </c>
@@ -14685,9 +14281,8 @@
       <c r="G408" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H408" s="13"/>
-    </row>
-    <row r="409" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="409" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>322</v>
       </c>
@@ -14709,9 +14304,8 @@
       <c r="G409" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H409" s="13"/>
-    </row>
-    <row r="410" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="410" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>324</v>
       </c>
@@ -14733,9 +14327,8 @@
       <c r="G410" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H410" s="13"/>
-    </row>
-    <row r="411" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="411" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>268</v>
       </c>
@@ -14757,9 +14350,8 @@
       <c r="G411" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H411" s="13"/>
-    </row>
-    <row r="412" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="412" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>130</v>
       </c>
@@ -14781,9 +14373,8 @@
       <c r="G412" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H412" s="13"/>
-    </row>
-    <row r="413" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="413" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
         <v>211</v>
       </c>
@@ -14805,9 +14396,8 @@
       <c r="G413" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H413" s="13"/>
-    </row>
-    <row r="414" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="414" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
         <v>137</v>
       </c>
@@ -14829,9 +14419,8 @@
       <c r="G414" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H414" s="13"/>
-    </row>
-    <row r="415" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="415" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A415" s="7" t="s">
         <v>474</v>
       </c>
@@ -14853,9 +14442,8 @@
       <c r="G415" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H415" s="13"/>
-    </row>
-    <row r="416" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="416" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A416" s="7" t="s">
         <v>7</v>
       </c>
@@ -14877,9 +14465,8 @@
       <c r="G416" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H416" s="13"/>
-    </row>
-    <row r="417" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="417" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A417" s="7" t="s">
         <v>189</v>
       </c>
@@ -14901,9 +14488,8 @@
       <c r="G417" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H417" s="13"/>
-    </row>
-    <row r="418" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="418" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
         <v>459</v>
       </c>
@@ -14925,9 +14511,8 @@
       <c r="G418" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H418" s="13"/>
-    </row>
-    <row r="419" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="419" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
         <v>239</v>
       </c>
@@ -14949,9 +14534,8 @@
       <c r="G419" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H419" s="13"/>
-    </row>
-    <row r="420" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="420" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
         <v>23</v>
       </c>
@@ -14973,9 +14557,8 @@
       <c r="G420" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H420" s="13"/>
-    </row>
-    <row r="421" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="421" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>23</v>
       </c>
@@ -14997,9 +14580,8 @@
       <c r="G421" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H421" s="13"/>
-    </row>
-    <row r="422" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="422" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>179</v>
       </c>
@@ -15021,9 +14603,8 @@
       <c r="G422" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H422" s="13"/>
-    </row>
-    <row r="423" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    </row>
+    <row r="423" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>179</v>
       </c>
@@ -15045,9 +14626,8 @@
       <c r="G423" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H423" s="13"/>
-    </row>
-    <row r="424" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="424" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A424" s="7" t="s">
         <v>437</v>
       </c>
@@ -15069,9 +14649,8 @@
       <c r="G424" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H424" s="13"/>
-    </row>
-    <row r="425" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="425" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>192</v>
       </c>
@@ -15093,9 +14672,8 @@
       <c r="G425" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H425" s="13"/>
-    </row>
-    <row r="426" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    </row>
+    <row r="426" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>202</v>
       </c>
@@ -15117,9 +14695,8 @@
       <c r="G426" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H426" s="13"/>
-    </row>
-    <row r="427" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="427" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>449</v>
       </c>
@@ -15141,9 +14718,8 @@
       <c r="G427" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H427" s="13"/>
-    </row>
-    <row r="428" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="428" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>212</v>
       </c>
@@ -15165,9 +14741,8 @@
       <c r="G428" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H428" s="13"/>
-    </row>
-    <row r="429" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="429" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>202</v>
       </c>
@@ -15189,9 +14764,8 @@
       <c r="G429" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H429" s="13"/>
-    </row>
-    <row r="430" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="430" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
         <v>194</v>
       </c>
@@ -15213,9 +14787,8 @@
       <c r="G430" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H430" s="13"/>
-    </row>
-    <row r="431" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="431" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>1048</v>
       </c>
@@ -15237,9 +14810,8 @@
       <c r="G431" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H431" s="13"/>
-    </row>
-    <row r="432" spans="1:8" ht="126" x14ac:dyDescent="0.35">
+    </row>
+    <row r="432" spans="1:7" ht="126" x14ac:dyDescent="0.35">
       <c r="A432" s="4" t="s">
         <v>204</v>
       </c>
@@ -15261,7 +14833,6 @@
       <c r="G432" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H432" s="13"/>
     </row>
     <row r="433" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
@@ -15285,7 +14856,6 @@
       <c r="G433" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H433" s="13"/>
     </row>
     <row r="434" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
@@ -15309,7 +14879,6 @@
       <c r="G434" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H434" s="13"/>
     </row>
     <row r="435" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
@@ -15333,7 +14902,6 @@
       <c r="G435" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H435" s="13"/>
     </row>
     <row r="436" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
@@ -15357,7 +14925,6 @@
       <c r="G436" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H436" s="13"/>
     </row>
     <row r="437" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
@@ -15381,7 +14948,6 @@
       <c r="G437" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H437" s="13"/>
     </row>
     <row r="438" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
@@ -15405,7 +14971,6 @@
       <c r="G438" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H438" s="13"/>
     </row>
     <row r="439" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
@@ -15429,7 +14994,6 @@
       <c r="G439" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H439" s="13"/>
     </row>
     <row r="440" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
@@ -15453,7 +15017,6 @@
       <c r="G440" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H440" s="13"/>
       <c r="I440" s="7"/>
     </row>
     <row r="441" spans="1:9" ht="36" x14ac:dyDescent="0.3">
@@ -15478,7 +15041,6 @@
       <c r="G441" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H441" s="13"/>
     </row>
     <row r="442" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A442" s="7" t="s">
@@ -15502,7 +15064,6 @@
       <c r="G442" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H442" s="13"/>
     </row>
     <row r="443" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
@@ -15526,7 +15087,6 @@
       <c r="G443" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H443" s="13"/>
     </row>
     <row r="444" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
@@ -15550,7 +15110,6 @@
       <c r="G444" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H444" s="13"/>
     </row>
     <row r="445" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A445" s="4" t="s">
@@ -15574,7 +15133,6 @@
       <c r="G445" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H445" s="13"/>
     </row>
     <row r="446" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
@@ -15598,7 +15156,6 @@
       <c r="G446" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H446" s="13"/>
     </row>
     <row r="447" spans="1:9" ht="90" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
@@ -15622,7 +15179,6 @@
       <c r="G447" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H447" s="13"/>
     </row>
     <row r="448" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
@@ -15646,9 +15202,8 @@
       <c r="G448" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H448" s="13"/>
-    </row>
-    <row r="449" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="449" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
         <v>1049</v>
       </c>
@@ -15670,9 +15225,8 @@
       <c r="G449" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H449" s="13"/>
-    </row>
-    <row r="450" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="450" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>1050</v>
       </c>
@@ -15694,9 +15248,8 @@
       <c r="G450" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H450" s="13"/>
-    </row>
-    <row r="451" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="451" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A451" s="7" t="s">
         <v>479</v>
       </c>
@@ -15718,9 +15271,8 @@
       <c r="G451" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H451" s="13"/>
-    </row>
-    <row r="452" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="452" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
         <v>1051</v>
       </c>
@@ -15742,9 +15294,8 @@
       <c r="G452" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H452" s="13"/>
-    </row>
-    <row r="453" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="453" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
         <v>1052</v>
       </c>
@@ -15766,9 +15317,8 @@
       <c r="G453" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H453" s="13"/>
-    </row>
-    <row r="454" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="454" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
         <v>1053</v>
       </c>
@@ -15790,9 +15340,8 @@
       <c r="G454" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H454" s="13"/>
-    </row>
-    <row r="455" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="455" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
         <v>214</v>
       </c>
@@ -15814,9 +15363,8 @@
       <c r="G455" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H455" s="13"/>
-    </row>
-    <row r="456" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="456" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A456" s="4" t="s">
         <v>501</v>
       </c>
@@ -15838,9 +15386,8 @@
       <c r="G456" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H456" s="13"/>
-    </row>
-    <row r="457" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="457" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
         <v>83</v>
       </c>
@@ -15862,9 +15409,8 @@
       <c r="G457" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H457" s="13"/>
-    </row>
-    <row r="458" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    </row>
+    <row r="458" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A458" s="4" t="s">
         <v>1054</v>
       </c>
@@ -15886,9 +15432,8 @@
       <c r="G458" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H458" s="13"/>
-    </row>
-    <row r="459" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="459" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A459" s="4" t="s">
         <v>223</v>
       </c>
@@ -15910,9 +15455,8 @@
       <c r="G459" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H459" s="13"/>
-    </row>
-    <row r="460" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="460" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
         <v>249</v>
       </c>
@@ -15934,9 +15478,8 @@
       <c r="G460" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H460" s="13"/>
-    </row>
-    <row r="461" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="461" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A461" s="4" t="s">
         <v>925</v>
       </c>
@@ -15958,9 +15501,8 @@
       <c r="G461" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H461" s="13"/>
-    </row>
-    <row r="462" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="462" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A462" s="4" t="s">
         <v>333</v>
       </c>
@@ -15982,9 +15524,8 @@
       <c r="G462" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H462" s="13"/>
-    </row>
-    <row r="463" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="463" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A463" s="4" t="s">
         <v>1055</v>
       </c>
@@ -16006,9 +15547,8 @@
       <c r="G463" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H463" s="13"/>
-    </row>
-    <row r="464" spans="1:8" ht="234" x14ac:dyDescent="0.3">
+    </row>
+    <row r="464" spans="1:7" ht="234" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
         <v>1056</v>
       </c>
@@ -16030,7 +15570,6 @@
       <c r="G464" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H464" s="13"/>
     </row>
     <row r="465" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A465" s="4" t="s">
@@ -16054,7 +15593,6 @@
       <c r="G465" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H465" s="13"/>
     </row>
     <row r="466" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
@@ -16078,7 +15616,7 @@
       <c r="G466" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H466" s="14"/>
+      <c r="H466" s="13"/>
     </row>
     <row r="467" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
@@ -16102,7 +15640,6 @@
       <c r="G467" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H467" s="13"/>
     </row>
     <row r="468" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
@@ -16126,7 +15663,6 @@
       <c r="G468" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H468" s="13"/>
     </row>
     <row r="469" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
@@ -16150,7 +15686,6 @@
       <c r="G469" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H469" s="13"/>
     </row>
     <row r="470" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
@@ -16174,7 +15709,6 @@
       <c r="G470" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H470" s="13"/>
     </row>
     <row r="471" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A471" s="4" t="s">
@@ -16198,7 +15732,6 @@
       <c r="G471" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H471" s="13"/>
     </row>
     <row r="472" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
@@ -16222,7 +15755,6 @@
       <c r="G472" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H472" s="13"/>
     </row>
     <row r="473" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
@@ -16246,7 +15778,6 @@
       <c r="G473" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H473" s="13"/>
     </row>
     <row r="474" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
@@ -16270,7 +15801,6 @@
       <c r="G474" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H474" s="13"/>
     </row>
     <row r="475" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
@@ -16294,7 +15824,6 @@
       <c r="G475" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H475" s="13"/>
     </row>
     <row r="476" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
@@ -16318,7 +15847,6 @@
       <c r="G476" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H476" s="13"/>
     </row>
     <row r="477" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
@@ -16342,7 +15870,6 @@
       <c r="G477" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H477" s="13"/>
     </row>
     <row r="478" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A478" s="4" t="s">
@@ -16366,7 +15893,6 @@
       <c r="G478" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H478" s="13"/>
     </row>
     <row r="479" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A479" s="4" t="s">
@@ -16390,7 +15916,6 @@
       <c r="G479" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H479" s="13"/>
     </row>
     <row r="480" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
@@ -16414,9 +15939,8 @@
       <c r="G480" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H480" s="13"/>
-    </row>
-    <row r="481" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="481" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
         <v>234</v>
       </c>
@@ -16438,9 +15962,8 @@
       <c r="G481" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H481" s="13"/>
-    </row>
-    <row r="482" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="482" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
         <v>329</v>
       </c>
@@ -16462,9 +15985,8 @@
       <c r="G482" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H482" s="13"/>
-    </row>
-    <row r="483" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="483" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
         <v>191</v>
       </c>
@@ -16486,9 +16008,8 @@
       <c r="G483" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H483" s="13"/>
-    </row>
-    <row r="484" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="484" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A484" s="4" t="s">
         <v>462</v>
       </c>
@@ -16510,9 +16031,8 @@
       <c r="G484" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H484" s="13"/>
-    </row>
-    <row r="485" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="485" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
         <v>162</v>
       </c>
@@ -16534,9 +16054,8 @@
       <c r="G485" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H485" s="13"/>
-    </row>
-    <row r="486" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="486" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
         <v>141</v>
       </c>
@@ -16558,9 +16077,8 @@
       <c r="G486" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="H486" s="13"/>
-    </row>
-    <row r="487" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="487" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A487" s="4" t="s">
         <v>1060</v>
       </c>
@@ -16582,9 +16100,8 @@
       <c r="G487" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H487" s="13"/>
-    </row>
-    <row r="488" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="488" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A488" s="4" t="s">
         <v>48</v>
       </c>
@@ -16606,9 +16123,8 @@
       <c r="G488" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H488" s="13"/>
-    </row>
-    <row r="489" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    </row>
+    <row r="489" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A489" s="4" t="s">
         <v>1064</v>
       </c>
@@ -16630,9 +16146,8 @@
       <c r="G489" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H489" s="13"/>
-    </row>
-    <row r="490" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="490" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A490" s="4" t="s">
         <v>1065</v>
       </c>
@@ -16652,9 +16167,8 @@
       <c r="G490" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="H490" s="13"/>
-    </row>
-    <row r="491" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="491" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A491" s="4" t="s">
         <v>1081</v>
       </c>
@@ -16676,9 +16190,8 @@
       <c r="G491" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H491" s="13"/>
-    </row>
-    <row r="492" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="492" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A492" s="4" t="s">
         <v>1082</v>
       </c>
@@ -16700,9 +16213,8 @@
       <c r="G492" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H492" s="13"/>
-    </row>
-    <row r="493" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="493" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A493" s="4" t="s">
         <v>1083</v>
       </c>
@@ -16724,9 +16236,8 @@
       <c r="G493" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H493" s="13"/>
-    </row>
-    <row r="494" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="494" spans="1:7" ht="36" x14ac:dyDescent="0.35">
       <c r="A494" s="4" t="s">
         <v>1084</v>
       </c>
@@ -16748,9 +16259,8 @@
       <c r="G494" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H494" s="13"/>
-    </row>
-    <row r="495" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="495" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
         <v>217</v>
       </c>
@@ -16773,7 +16283,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
         <v>1028</v>
       </c>
@@ -17138,6 +16648,29 @@
         <v>1398</v>
       </c>
       <c r="G511" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A512" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="B512" s="5">
+        <v>23</v>
+      </c>
+      <c r="C512" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D512" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E512" s="7" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F512" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G512" s="7" t="s">
         <v>835</v>
       </c>
     </row>
